--- a/biology/Médecine/Diane_Lamarre/Diane_Lamarre.xlsx
+++ b/biology/Médecine/Diane_Lamarre/Diane_Lamarre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Diane Lamarre est une pharmacienne et femme politique québécoise.
@@ -513,11 +525,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diane Lamarre est détentrice d’un baccalauréat en pharmacie de la Faculté de pharmacie de l'Université de Montréal. En 1990, elle devient pharmacienne propriétaire à Saint-Lambert, en Montérégie. Dix ans plus tard, elle obtient un poste de professeure de clinique à la Faculté de pharmacie de l'Université de Montréal. Elle complète une maîtrise en pratique pharmaceutique en 2003.
-Membre de Pharmaciens sans frontières depuis 1998, Diane Lamarre préside la branche canadienne de l'organisme de 2007 à 2014. Elle participe à de nombreuses missions humanitaires au Kosovo et en Bosnie-Herzégovine avec notamment l'Organisation mondiale de la santé ainsi qu’en Afrique, en Moldavie  et en Haïti[1]. Le 12 juin 2009[2], elle est élue présidente de l’Ordre des pharmaciens du Québec. Elle est aussi chroniqueuse dans différents médias, entre autres pour RDI Santé de 2009 à 2011 puis dans Le Journal de Montréal de 2011 à 2014.
-Elle se présente candidate pour le Parti québécois dans Taillon[3] et gagne cette circonscription lors des élections générales québécoises de 2014. Lors de son mandat comme députée, elle est porte-parole de l'opposition officielle en matière de santé, d'accessibilité aux soins, de soutien à domicile et pour la Régie de l'assurance maladie du Québec. Elle est défaite lors des élections de 2018.
+Membre de Pharmaciens sans frontières depuis 1998, Diane Lamarre préside la branche canadienne de l'organisme de 2007 à 2014. Elle participe à de nombreuses missions humanitaires au Kosovo et en Bosnie-Herzégovine avec notamment l'Organisation mondiale de la santé ainsi qu’en Afrique, en Moldavie  et en Haïti. Le 12 juin 2009, elle est élue présidente de l’Ordre des pharmaciens du Québec. Elle est aussi chroniqueuse dans différents médias, entre autres pour RDI Santé de 2009 à 2011 puis dans Le Journal de Montréal de 2011 à 2014.
+Elle se présente candidate pour le Parti québécois dans Taillon et gagne cette circonscription lors des élections générales québécoises de 2014. Lors de son mandat comme députée, elle est porte-parole de l'opposition officielle en matière de santé, d'accessibilité aux soins, de soutien à domicile et pour la Régie de l'assurance maladie du Québec. Elle est défaite lors des élections de 2018.
 Depuis 2020, elle intervient régulièrement sur les réseaux LCN et TVA afin de commenter l'actualité et les enjeux liés au domaine de la santé.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1984 : Prix Louis-Hébert de l'Ordre des pharmaciens du Québec
 2000 : Prix d’Excellence en enseignement de l'Université de Montréal
@@ -587,7 +603,9 @@
           <t>Résultats électoraux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
